--- a/logic/test/data/spatialinventory/exceptions_spatial_disaggregation.xlsx
+++ b/logic/test/data/spatialinventory/exceptions_spatial_disaggregation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMABuild\emap\logic\test\data\spatialinventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E8E94F-E6BE-4BE7-AE53-60926E17704D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B753119-0537-46A0-9906-3EE07E88F6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="5" xr2:uid="{6C3FE3BB-8C73-4241-95BD-F737EA4A19F7}"/>
   </bookViews>
@@ -1391,64 +1391,64 @@
     <t>Road transport: Resuspension</t>
   </si>
   <si>
-    <t>.\wegverkeer\2021\1A3BI_CO_2015.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BII_CO_2015.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIII_CO_2015.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIV_CO_2015.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BI_CO_2016.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BII_CO_2016.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIII_CO_2016.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIV_CO_2016.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BI_CO_2017.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BII_CO_2017.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIII_CO_2017.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIV_CO_2017.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BI_CO_2018.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BII_CO_2018.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIII_CO_2018.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIV_CO_2018.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BI_CO_2019.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BII_CO_2019.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIII_CO_2019.tif</t>
-  </si>
-  <si>
-    <t>.\wegverkeer\2021\1A3BIV_CO_2019.tif</t>
+    <t>./wegverkeer/2021/1A3BI_CO_2015.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BII_CO_2015.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIII_CO_2015.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIV_CO_2015.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BI_CO_2016.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BII_CO_2016.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIII_CO_2016.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIV_CO_2016.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BI_CO_2017.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BII_CO_2017.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIII_CO_2017.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIV_CO_2017.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BI_CO_2018.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BII_CO_2018.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIII_CO_2018.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIV_CO_2018.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BI_CO_2019.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BII_CO_2019.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIII_CO_2019.tif</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/1A3BIV_CO_2019.tif</t>
   </si>
 </sst>
 </file>
@@ -1574,6 +1574,168 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="47">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1934,168 +2096,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2172,38 +2172,38 @@
     <tableColumn id="4" xr3:uid="{98A5C858-28E9-44AB-8218-0A98439E4FDD}" name="GNFR_code"/>
     <tableColumn id="5" xr3:uid="{E012C600-87B4-47D1-9988-30D2C112D83D}" name="NFR_code"/>
     <tableColumn id="12" xr3:uid="{2155F8C1-A823-4717-B464-22F4A9A05E6A}" name="file_path"/>
-    <tableColumn id="9" xr3:uid="{DCB47D4C-7148-4891-B486-04CF70C7FDCC}" name="country_label" dataDxfId="46">
+    <tableColumn id="9" xr3:uid="{DCB47D4C-7148-4891-B486-04CF70C7FDCC}" name="country_label" dataDxfId="10">
       <calculatedColumnFormula>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{409654D3-E717-4ECD-B724-CE76BF1FA726}" name="GNFR_label" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{409654D3-E717-4ECD-B724-CE76BF1FA726}" name="GNFR_label" dataDxfId="9">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9A37C5B-FED3-493F-81B8-F88D72CF166B}" name="NFR_label" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{B9A37C5B-FED3-493F-81B8-F88D72CF166B}" name="NFR_label" dataDxfId="8">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3741CCE9-D8A3-4702-9FBB-BDDC5296CA41}" name="Data validation GNFR-NFR_range" dataDxfId="43">
+    <tableColumn id="10" xr3:uid="{3741CCE9-D8A3-4702-9FBB-BDDC5296CA41}" name="Data validation GNFR-NFR_range" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{327D5723-70F8-4F14-A112-90BAA56B122D}" name="Data validation GNFR-NFR_ok" dataDxfId="42">
+    <tableColumn id="11" xr3:uid="{327D5723-70F8-4F14-A112-90BAA56B122D}" name="Data validation GNFR-NFR_ok" dataDxfId="6">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{14DFCA77-FA4F-4492-90FC-E1CF29BD5BDC}" name="E-MAP_year" dataDxfId="41">
+    <tableColumn id="13" xr3:uid="{14DFCA77-FA4F-4492-90FC-E1CF29BD5BDC}" name="E-MAP_year" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0AF0B6B0-EAF2-4779-805E-3E840BA3636B}" name="E-MAP_pollutant_code" dataDxfId="40">
+    <tableColumn id="15" xr3:uid="{0AF0B6B0-EAF2-4779-805E-3E840BA3636B}" name="E-MAP_pollutant_code" dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C9437DA3-379A-4119-852E-97451565DC30}" name="E-MAP_country_iso_code" dataDxfId="39">
+    <tableColumn id="16" xr3:uid="{C9437DA3-379A-4119-852E-97451565DC30}" name="E-MAP_country_iso_code" dataDxfId="3">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{90BD55C3-62EC-45E1-88D6-C55C69ABA3CE}" name="E-MAP_GNFR_code" dataDxfId="38">
+    <tableColumn id="17" xr3:uid="{90BD55C3-62EC-45E1-88D6-C55C69ABA3CE}" name="E-MAP_GNFR_code" dataDxfId="2">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{75A83B3D-980A-4F01-8C60-1E833397AAFE}" name="E-MAP_NFR_code" dataDxfId="37">
+    <tableColumn id="18" xr3:uid="{75A83B3D-980A-4F01-8C60-1E833397AAFE}" name="E-MAP_NFR_code" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8B2B56DD-9D26-4198-95A5-38E1BF66DD11}" name="E-MAP_file_path" dataDxfId="36">
+    <tableColumn id="19" xr3:uid="{8B2B56DD-9D26-4198-95A5-38E1BF66DD11}" name="E-MAP_file_path" dataDxfId="0">
       <calculatedColumnFormula>tbl_I_spatial_distribution[[#This Row],[file_path]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5303,7 +5303,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="Q2" s="3" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BI_CO_2015.tif</v>
+        <v>./wegverkeer/2021/1A3BI_CO_2015.tif</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="Q3" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BII_CO_2015.tif</v>
+        <v>./wegverkeer/2021/1A3BII_CO_2015.tif</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="Q4" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIII_CO_2015.tif</v>
+        <v>./wegverkeer/2021/1A3BIII_CO_2015.tif</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="Q5" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIV_CO_2015.tif</v>
+        <v>./wegverkeer/2021/1A3BIV_CO_2015.tif</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="Q6" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BI_CO_2016.tif</v>
+        <v>./wegverkeer/2021/1A3BI_CO_2016.tif</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="Q7" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BII_CO_2016.tif</v>
+        <v>./wegverkeer/2021/1A3BII_CO_2016.tif</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="Q8" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIII_CO_2016.tif</v>
+        <v>./wegverkeer/2021/1A3BIII_CO_2016.tif</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="Q9" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIV_CO_2016.tif</v>
+        <v>./wegverkeer/2021/1A3BIV_CO_2016.tif</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="Q10" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BI_CO_2017.tif</v>
+        <v>./wegverkeer/2021/1A3BI_CO_2017.tif</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="Q11" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BII_CO_2017.tif</v>
+        <v>./wegverkeer/2021/1A3BII_CO_2017.tif</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="Q12" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIII_CO_2017.tif</v>
+        <v>./wegverkeer/2021/1A3BIII_CO_2017.tif</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="Q13" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIV_CO_2017.tif</v>
+        <v>./wegverkeer/2021/1A3BIV_CO_2017.tif</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="Q14" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BI_CO_2018.tif</v>
+        <v>./wegverkeer/2021/1A3BI_CO_2018.tif</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Q15" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BII_CO_2018.tif</v>
+        <v>./wegverkeer/2021/1A3BII_CO_2018.tif</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="Q16" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIII_CO_2018.tif</v>
+        <v>./wegverkeer/2021/1A3BIII_CO_2018.tif</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="Q17" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIV_CO_2018.tif</v>
+        <v>./wegverkeer/2021/1A3BIV_CO_2018.tif</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="Q18" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BI_CO_2019.tif</v>
+        <v>./wegverkeer/2021/1A3BI_CO_2019.tif</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="Q19" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BII_CO_2019.tif</v>
+        <v>./wegverkeer/2021/1A3BII_CO_2019.tif</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="Q20" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIII_CO_2019.tif</v>
+        <v>./wegverkeer/2021/1A3BIII_CO_2019.tif</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -6617,188 +6617,188 @@
       </c>
       <c r="Q21" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
-        <v>.\wegverkeer\2021\1A3BIV_CO_2019.tif</v>
+        <v>./wegverkeer/2021/1A3BIV_CO_2019.tif</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="expression" dxfId="35" priority="883">
+    <cfRule type="expression" dxfId="46" priority="883">
       <formula>$K2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21 A2:C21">
-    <cfRule type="expression" dxfId="34" priority="882">
+    <cfRule type="expression" dxfId="45" priority="882">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="33" priority="881">
+    <cfRule type="expression" dxfId="44" priority="881">
       <formula>$K3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 F3">
-    <cfRule type="expression" dxfId="32" priority="880">
+    <cfRule type="expression" dxfId="43" priority="880">
       <formula>ISBLANK(A3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="31" priority="879">
+    <cfRule type="expression" dxfId="42" priority="879">
       <formula>$K4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 F4">
-    <cfRule type="expression" dxfId="30" priority="878">
+    <cfRule type="expression" dxfId="41" priority="878">
       <formula>ISBLANK(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="29" priority="877">
+    <cfRule type="expression" dxfId="40" priority="877">
       <formula>$K5=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 F5">
-    <cfRule type="expression" dxfId="28" priority="876">
+    <cfRule type="expression" dxfId="39" priority="876">
       <formula>ISBLANK(A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C9 F6:F9">
-    <cfRule type="expression" dxfId="27" priority="875">
+    <cfRule type="expression" dxfId="38" priority="875">
       <formula>ISBLANK(A6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="26" priority="874">
+    <cfRule type="expression" dxfId="37" priority="874">
       <formula>$K7=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 F7">
-    <cfRule type="expression" dxfId="25" priority="873">
+    <cfRule type="expression" dxfId="36" priority="873">
       <formula>ISBLANK(A7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="24" priority="872">
+    <cfRule type="expression" dxfId="35" priority="872">
       <formula>$K8=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 F8">
-    <cfRule type="expression" dxfId="23" priority="871">
+    <cfRule type="expression" dxfId="34" priority="871">
       <formula>ISBLANK(A8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="22" priority="870">
+    <cfRule type="expression" dxfId="33" priority="870">
       <formula>$K9=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 F9">
-    <cfRule type="expression" dxfId="21" priority="869">
+    <cfRule type="expression" dxfId="32" priority="869">
       <formula>ISBLANK(A9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:C13 F10:F13">
-    <cfRule type="expression" dxfId="20" priority="868">
+    <cfRule type="expression" dxfId="31" priority="868">
       <formula>ISBLANK(A10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="19" priority="867">
+    <cfRule type="expression" dxfId="30" priority="867">
       <formula>$K11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 F11">
-    <cfRule type="expression" dxfId="18" priority="866">
+    <cfRule type="expression" dxfId="29" priority="866">
       <formula>ISBLANK(A11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="17" priority="865">
+    <cfRule type="expression" dxfId="28" priority="865">
       <formula>$K12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12 F12">
-    <cfRule type="expression" dxfId="16" priority="864">
+    <cfRule type="expression" dxfId="27" priority="864">
       <formula>ISBLANK(A12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="15" priority="863">
+    <cfRule type="expression" dxfId="26" priority="863">
       <formula>$K13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 F13">
-    <cfRule type="expression" dxfId="14" priority="862">
+    <cfRule type="expression" dxfId="25" priority="862">
       <formula>ISBLANK(A13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C17 F14:F17">
-    <cfRule type="expression" dxfId="13" priority="861">
+    <cfRule type="expression" dxfId="24" priority="861">
       <formula>ISBLANK(A14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="12" priority="860">
+    <cfRule type="expression" dxfId="23" priority="860">
       <formula>$K15=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 F15">
-    <cfRule type="expression" dxfId="11" priority="859">
+    <cfRule type="expression" dxfId="22" priority="859">
       <formula>ISBLANK(A15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="10" priority="858">
+    <cfRule type="expression" dxfId="21" priority="858">
       <formula>$K16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 F16">
-    <cfRule type="expression" dxfId="9" priority="857">
+    <cfRule type="expression" dxfId="20" priority="857">
       <formula>ISBLANK(A16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="8" priority="856">
+    <cfRule type="expression" dxfId="19" priority="856">
       <formula>$K17=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17">
-    <cfRule type="expression" dxfId="7" priority="855">
+    <cfRule type="expression" dxfId="18" priority="855">
       <formula>ISBLANK(A17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C21 F18:F21">
-    <cfRule type="expression" dxfId="6" priority="854">
+    <cfRule type="expression" dxfId="17" priority="854">
       <formula>ISBLANK(A18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="5" priority="853">
+    <cfRule type="expression" dxfId="16" priority="853">
       <formula>$K19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19 F19">
-    <cfRule type="expression" dxfId="4" priority="852">
+    <cfRule type="expression" dxfId="15" priority="852">
       <formula>ISBLANK(A19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="3" priority="851">
+    <cfRule type="expression" dxfId="14" priority="851">
       <formula>$K20=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 F20">
-    <cfRule type="expression" dxfId="2" priority="850">
+    <cfRule type="expression" dxfId="13" priority="850">
       <formula>ISBLANK(A20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="1" priority="849">
+    <cfRule type="expression" dxfId="12" priority="849">
       <formula>$K21=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C21 F21">
-    <cfRule type="expression" dxfId="0" priority="848">
+    <cfRule type="expression" dxfId="11" priority="848">
       <formula>ISBLANK(A21)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/logic/test/data/spatialinventory/exceptions_spatial_disaggregation.xlsx
+++ b/logic/test/data/spatialinventory/exceptions_spatial_disaggregation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMABuild\emap\logic\test\data\spatialinventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B753119-0537-46A0-9906-3EE07E88F6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D18855-D59F-4646-AA76-8C11D8D1274C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="5" xr2:uid="{6C3FE3BB-8C73-4241-95BD-F737EA4A19F7}"/>
+    <workbookView xWindow="840" yWindow="-110" windowWidth="37670" windowHeight="21820" activeTab="5" xr2:uid="{6C3FE3BB-8C73-4241-95BD-F737EA4A19F7}"/>
   </bookViews>
   <sheets>
     <sheet name="GNFR" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="465">
   <si>
     <t>A_PublicPower</t>
   </si>
@@ -1449,6 +1449,18 @@
   </si>
   <si>
     <t>./wegverkeer/2021/1A3BIV_CO_2019.tif</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tif</t>
+  </si>
+  <si>
+    <t>via_NFR</t>
+  </si>
+  <si>
+    <t>via_GNFR</t>
   </si>
 </sst>
 </file>
@@ -1574,168 +1586,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="47">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2096,6 +1946,168 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2163,47 +2175,50 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C6617CD5-2290-43AE-9640-6C7136C3D81F}" name="tbl_I_spatial_distribution" displayName="tbl_I_spatial_distribution" ref="A1:Q21" totalsRowShown="0">
-  <autoFilter ref="A1:Q21" xr:uid="{63E30767-0150-412D-B197-11CE9D14EB4E}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C6617CD5-2290-43AE-9640-6C7136C3D81F}" name="tbl_I_spatial_distribution" displayName="tbl_I_spatial_distribution" ref="A1:T21" totalsRowShown="0">
+  <autoFilter ref="A1:T21" xr:uid="{63E30767-0150-412D-B197-11CE9D14EB4E}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{3CCF1BDF-57B8-4181-91EA-C6A954F57C6F}" name="Year"/>
     <tableColumn id="3" xr3:uid="{E47F6DBE-843D-4D02-9E5B-FEE4182373E7}" name="pollutant_code"/>
     <tableColumn id="8" xr3:uid="{E38CAB6A-CB47-4542-997D-36BA98FB4911}" name="country_iso_code"/>
     <tableColumn id="4" xr3:uid="{98A5C858-28E9-44AB-8218-0A98439E4FDD}" name="GNFR_code"/>
     <tableColumn id="5" xr3:uid="{E012C600-87B4-47D1-9988-30D2C112D83D}" name="NFR_code"/>
     <tableColumn id="12" xr3:uid="{2155F8C1-A823-4717-B464-22F4A9A05E6A}" name="file_path"/>
-    <tableColumn id="9" xr3:uid="{DCB47D4C-7148-4891-B486-04CF70C7FDCC}" name="country_label" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{34470E06-D53A-4CB8-883D-67C79F759C3B}" name="type"/>
+    <tableColumn id="14" xr3:uid="{F12554B4-D21C-46BF-A7E1-572FE2F30F2C}" name="via_NFR"/>
+    <tableColumn id="20" xr3:uid="{45D262D2-7868-46E7-AB75-B5A5A94061E0}" name="via_GNFR"/>
+    <tableColumn id="9" xr3:uid="{DCB47D4C-7148-4891-B486-04CF70C7FDCC}" name="country_label" dataDxfId="46">
       <calculatedColumnFormula>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{409654D3-E717-4ECD-B724-CE76BF1FA726}" name="GNFR_label" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{409654D3-E717-4ECD-B724-CE76BF1FA726}" name="GNFR_label" dataDxfId="45">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9A37C5B-FED3-493F-81B8-F88D72CF166B}" name="NFR_label" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{B9A37C5B-FED3-493F-81B8-F88D72CF166B}" name="NFR_label" dataDxfId="44">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3741CCE9-D8A3-4702-9FBB-BDDC5296CA41}" name="Data validation GNFR-NFR_range" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{3741CCE9-D8A3-4702-9FBB-BDDC5296CA41}" name="Data validation GNFR-NFR_range" dataDxfId="43">
       <calculatedColumnFormula>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{327D5723-70F8-4F14-A112-90BAA56B122D}" name="Data validation GNFR-NFR_ok" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{327D5723-70F8-4F14-A112-90BAA56B122D}" name="Data validation GNFR-NFR_ok" dataDxfId="42">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{14DFCA77-FA4F-4492-90FC-E1CF29BD5BDC}" name="E-MAP_year" dataDxfId="5">
+    <tableColumn id="13" xr3:uid="{14DFCA77-FA4F-4492-90FC-E1CF29BD5BDC}" name="E-MAP_year" dataDxfId="41">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0AF0B6B0-EAF2-4779-805E-3E840BA3636B}" name="E-MAP_pollutant_code" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{0AF0B6B0-EAF2-4779-805E-3E840BA3636B}" name="E-MAP_pollutant_code" dataDxfId="40">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C9437DA3-379A-4119-852E-97451565DC30}" name="E-MAP_country_iso_code" dataDxfId="3">
+    <tableColumn id="16" xr3:uid="{C9437DA3-379A-4119-852E-97451565DC30}" name="E-MAP_country_iso_code" dataDxfId="39">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{90BD55C3-62EC-45E1-88D6-C55C69ABA3CE}" name="E-MAP_GNFR_code" dataDxfId="2">
+    <tableColumn id="17" xr3:uid="{90BD55C3-62EC-45E1-88D6-C55C69ABA3CE}" name="E-MAP_GNFR_code" dataDxfId="38">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{75A83B3D-980A-4F01-8C60-1E833397AAFE}" name="E-MAP_NFR_code" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{75A83B3D-980A-4F01-8C60-1E833397AAFE}" name="E-MAP_NFR_code" dataDxfId="37">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8B2B56DD-9D26-4198-95A5-38E1BF66DD11}" name="E-MAP_file_path" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{8B2B56DD-9D26-4198-95A5-38E1BF66DD11}" name="E-MAP_file_path" dataDxfId="36">
       <calculatedColumnFormula>tbl_I_spatial_distribution[[#This Row],[file_path]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2525,13 +2540,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -2539,7 +2554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -2547,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -2555,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -2563,7 +2578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2571,7 +2586,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -2579,7 +2594,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -2587,7 +2602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -2595,7 +2610,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -2603,7 +2618,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -2611,7 +2626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -2619,7 +2634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -2627,7 +2642,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2635,7 +2650,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -2662,15 +2677,15 @@
       <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="109.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -2684,7 +2699,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -2699,7 +2714,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -2714,7 +2729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2729,7 +2744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -2744,7 +2759,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -2759,7 +2774,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -2774,7 +2789,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -2789,7 +2804,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -2804,7 +2819,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>145</v>
       </c>
@@ -2819,7 +2834,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -2834,7 +2849,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2849,7 +2864,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -2864,7 +2879,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -2894,7 +2909,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -2909,7 +2924,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -2924,7 +2939,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -2939,7 +2954,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -2954,7 +2969,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -2969,7 +2984,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -2984,7 +2999,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -2999,7 +3014,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -3014,7 +3029,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -3029,7 +3044,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -3044,7 +3059,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -3059,7 +3074,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -3074,7 +3089,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -3089,7 +3104,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -3104,7 +3119,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -3119,7 +3134,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -3134,7 +3149,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3149,7 +3164,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3179,7 +3194,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -3194,7 +3209,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3209,7 +3224,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -3224,7 +3239,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -3239,7 +3254,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -3254,7 +3269,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -3269,7 +3284,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -3284,7 +3299,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -3299,7 +3314,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -3314,7 +3329,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -3329,7 +3344,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -3344,7 +3359,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -3359,7 +3374,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -3374,7 +3389,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -3389,7 +3404,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -3404,7 +3419,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -3419,7 +3434,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -3434,7 +3449,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -3449,7 +3464,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -3464,7 +3479,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>147</v>
       </c>
@@ -3479,7 +3494,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>147</v>
       </c>
@@ -3494,7 +3509,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>147</v>
       </c>
@@ -3509,7 +3524,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -3524,7 +3539,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -3539,7 +3554,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -3554,7 +3569,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -3569,7 +3584,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -3584,7 +3599,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -3599,7 +3614,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -3614,7 +3629,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -3629,7 +3644,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -3644,7 +3659,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -3659,7 +3674,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -3674,7 +3689,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -3704,7 +3719,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -3719,7 +3734,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3734,7 +3749,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -3749,7 +3764,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -3764,7 +3779,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -3779,7 +3794,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -3794,7 +3809,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -3809,7 +3824,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -3824,7 +3839,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -3839,7 +3854,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -3854,7 +3869,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -3869,7 +3884,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>152</v>
       </c>
@@ -3884,7 +3899,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -3899,7 +3914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -3914,7 +3929,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -3929,7 +3944,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -3944,7 +3959,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -3959,7 +3974,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -3974,7 +3989,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -3989,7 +4004,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -4004,7 +4019,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -4019,7 +4034,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -4034,7 +4049,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -4049,7 +4064,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -4064,7 +4079,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -4079,7 +4094,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -4094,7 +4109,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -4109,7 +4124,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -4124,7 +4139,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -4139,7 +4154,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -4154,7 +4169,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -4169,7 +4184,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -4184,7 +4199,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>154</v>
       </c>
@@ -4199,7 +4214,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>154</v>
       </c>
@@ -4214,7 +4229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>154</v>
       </c>
@@ -4229,7 +4244,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -4244,7 +4259,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>154</v>
       </c>
@@ -4259,7 +4274,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -4274,7 +4289,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>154</v>
       </c>
@@ -4289,7 +4304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -4304,7 +4319,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>154</v>
       </c>
@@ -4319,7 +4334,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>154</v>
       </c>
@@ -4334,7 +4349,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>154</v>
       </c>
@@ -4349,7 +4364,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>154</v>
       </c>
@@ -4364,7 +4379,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>154</v>
       </c>
@@ -4379,7 +4394,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>155</v>
       </c>
@@ -4394,7 +4409,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -4409,7 +4424,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -4424,7 +4439,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -4439,7 +4454,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -4454,7 +4469,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -4469,7 +4484,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -4484,7 +4499,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -4499,7 +4514,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -4514,7 +4529,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -4529,7 +4544,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -4544,7 +4559,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -4559,7 +4574,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>155</v>
       </c>
@@ -4574,7 +4589,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>156</v>
       </c>
@@ -4589,7 +4604,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>149</v>
       </c>
@@ -4623,13 +4638,13 @@
       <selection activeCell="A2" sqref="A2:A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>284</v>
       </c>
@@ -4637,7 +4652,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -4645,7 +4660,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>287</v>
       </c>
@@ -4653,7 +4668,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -4661,7 +4676,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -4669,7 +4684,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -4677,7 +4692,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>295</v>
       </c>
@@ -4685,7 +4700,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -4693,7 +4708,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -4701,7 +4716,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>301</v>
       </c>
@@ -4709,7 +4724,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>303</v>
       </c>
@@ -4717,7 +4732,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>305</v>
       </c>
@@ -4725,7 +4740,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -4733,7 +4748,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>309</v>
       </c>
@@ -4741,7 +4756,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>311</v>
       </c>
@@ -4749,7 +4764,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>313</v>
       </c>
@@ -4757,7 +4772,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>315</v>
       </c>
@@ -4765,7 +4780,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -4773,7 +4788,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>319</v>
       </c>
@@ -4781,7 +4796,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>321</v>
       </c>
@@ -4789,7 +4804,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -4797,7 +4812,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>325</v>
       </c>
@@ -4805,7 +4820,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -4813,7 +4828,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>329</v>
       </c>
@@ -4821,7 +4836,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>331</v>
       </c>
@@ -4829,7 +4844,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -4837,7 +4852,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>335</v>
       </c>
@@ -4845,7 +4860,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>337</v>
       </c>
@@ -4853,7 +4868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>339</v>
       </c>
@@ -4861,7 +4876,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>341</v>
       </c>
@@ -4869,7 +4884,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>343</v>
       </c>
@@ -4877,7 +4892,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>345</v>
       </c>
@@ -4885,7 +4900,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>347</v>
       </c>
@@ -4893,7 +4908,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>349</v>
       </c>
@@ -4901,7 +4916,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>351</v>
       </c>
@@ -4909,7 +4924,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>353</v>
       </c>
@@ -4917,7 +4932,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>355</v>
       </c>
@@ -4925,7 +4940,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>357</v>
       </c>
@@ -4933,7 +4948,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>359</v>
       </c>
@@ -4941,7 +4956,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>361</v>
       </c>
@@ -4949,7 +4964,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -4957,7 +4972,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>365</v>
       </c>
@@ -4965,7 +4980,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>367</v>
       </c>
@@ -4973,7 +4988,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>369</v>
       </c>
@@ -4981,7 +4996,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>371</v>
       </c>
@@ -4989,7 +5004,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>373</v>
       </c>
@@ -4997,7 +5012,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>375</v>
       </c>
@@ -5005,7 +5020,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>377</v>
       </c>
@@ -5013,7 +5028,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>379</v>
       </c>
@@ -5021,7 +5036,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>381</v>
       </c>
@@ -5029,7 +5044,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>383</v>
       </c>
@@ -5037,7 +5052,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>385</v>
       </c>
@@ -5045,7 +5060,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>387</v>
       </c>
@@ -5053,7 +5068,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>389</v>
       </c>
@@ -5061,7 +5076,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>391</v>
       </c>
@@ -5069,7 +5084,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>393</v>
       </c>
@@ -5094,147 +5109,147 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>422</v>
       </c>
@@ -5258,9 +5273,9 @@
       <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>436</v>
       </c>
@@ -5270,22 +5285,22 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>432</v>
       </c>
@@ -5300,34 +5315,37 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="130.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="130.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="130.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="130.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>423</v>
       </c>
@@ -5346,41 +5364,50 @@
       <c r="F1" t="s">
         <v>434</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -5396,53 +5423,56 @@
       <c r="F2" t="s">
         <v>441</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J2" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="K2" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="L2" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Passenger cars</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="M2" s="3" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K2" s="3" t="b">
+      <c r="N2" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L2" s="3">
+      <c r="O2" s="3">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2015</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="P2" s="3" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="Q2" s="3" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O2" s="3" t="str">
+      <c r="R2" s="3" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P2" s="3" t="str">
+      <c r="S2" s="3" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bi</v>
       </c>
-      <c r="Q2" s="3" t="str">
+      <c r="T2" s="3" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BI_CO_2015.tif</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5458,53 +5488,56 @@
       <c r="F3" t="s">
         <v>442</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" t="s">
+        <v>462</v>
+      </c>
+      <c r="J3" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H3" s="7" t="str">
+      <c r="K3" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="L3" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Light duty vehicles</v>
       </c>
-      <c r="J3" s="8" t="str">
+      <c r="M3" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K3" s="3" t="b">
+      <c r="N3" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="O3" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2015</v>
       </c>
-      <c r="M3" s="8" t="str">
+      <c r="P3" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N3" s="8" t="str">
+      <c r="Q3" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O3" s="8" t="str">
+      <c r="R3" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P3" s="8" t="str">
+      <c r="S3" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bii</v>
       </c>
-      <c r="Q3" s="8" t="str">
+      <c r="T3" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BII_CO_2015.tif</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -5520,53 +5553,56 @@
       <c r="F4" t="s">
         <v>443</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" t="s">
+        <v>462</v>
+      </c>
+      <c r="J4" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="K4" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="L4" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Heavy duty vehicles and buses</v>
       </c>
-      <c r="J4" s="8" t="str">
+      <c r="M4" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K4" s="3" t="b">
+      <c r="N4" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="O4" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2015</v>
       </c>
-      <c r="M4" s="8" t="str">
+      <c r="P4" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N4" s="8" t="str">
+      <c r="Q4" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O4" s="8" t="str">
+      <c r="R4" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P4" s="8" t="str">
+      <c r="S4" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biii</v>
       </c>
-      <c r="Q4" s="8" t="str">
+      <c r="T4" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIII_CO_2015.tif</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -5582,53 +5618,56 @@
       <c r="F5" t="s">
         <v>444</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" t="s">
+        <v>462</v>
+      </c>
+      <c r="J5" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="L5" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Mopeds &amp; motorcycles</v>
       </c>
-      <c r="J5" s="8" t="str">
+      <c r="M5" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K5" s="3" t="b">
+      <c r="N5" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="O5" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2015</v>
       </c>
-      <c r="M5" s="8" t="str">
+      <c r="P5" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N5" s="8" t="str">
+      <c r="Q5" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O5" s="8" t="str">
+      <c r="R5" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P5" s="8" t="str">
+      <c r="S5" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biv</v>
       </c>
-      <c r="Q5" s="8" t="str">
+      <c r="T5" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIV_CO_2015.tif</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -5644,53 +5683,56 @@
       <c r="F6" t="s">
         <v>445</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" t="s">
+        <v>462</v>
+      </c>
+      <c r="J6" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="K6" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="L6" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Passenger cars</v>
       </c>
-      <c r="J6" s="8" t="str">
+      <c r="M6" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K6" s="3" t="b">
+      <c r="N6" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="O6" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2016</v>
       </c>
-      <c r="M6" s="8" t="str">
+      <c r="P6" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N6" s="8" t="str">
+      <c r="Q6" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O6" s="8" t="str">
+      <c r="R6" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P6" s="8" t="str">
+      <c r="S6" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bi</v>
       </c>
-      <c r="Q6" s="8" t="str">
+      <c r="T6" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BI_CO_2016.tif</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -5706,53 +5748,56 @@
       <c r="F7" t="s">
         <v>446</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" t="s">
+        <v>462</v>
+      </c>
+      <c r="J7" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="L7" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Light duty vehicles</v>
       </c>
-      <c r="J7" s="8" t="str">
+      <c r="M7" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K7" s="3" t="b">
+      <c r="N7" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L7" s="8">
+      <c r="O7" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2016</v>
       </c>
-      <c r="M7" s="8" t="str">
+      <c r="P7" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N7" s="8" t="str">
+      <c r="Q7" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O7" s="8" t="str">
+      <c r="R7" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P7" s="8" t="str">
+      <c r="S7" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bii</v>
       </c>
-      <c r="Q7" s="8" t="str">
+      <c r="T7" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BII_CO_2016.tif</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -5768,53 +5813,56 @@
       <c r="F8" t="s">
         <v>447</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" t="s">
+        <v>462</v>
+      </c>
+      <c r="J8" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="L8" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Heavy duty vehicles and buses</v>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="M8" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K8" s="3" t="b">
+      <c r="N8" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L8" s="8">
+      <c r="O8" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2016</v>
       </c>
-      <c r="M8" s="8" t="str">
+      <c r="P8" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N8" s="8" t="str">
+      <c r="Q8" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O8" s="8" t="str">
+      <c r="R8" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P8" s="8" t="str">
+      <c r="S8" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biii</v>
       </c>
-      <c r="Q8" s="8" t="str">
+      <c r="T8" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIII_CO_2016.tif</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -5830,53 +5878,56 @@
       <c r="F9" t="s">
         <v>448</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="L9" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Mopeds &amp; motorcycles</v>
       </c>
-      <c r="J9" s="8" t="str">
+      <c r="M9" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K9" s="3" t="b">
+      <c r="N9" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L9" s="8">
+      <c r="O9" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2016</v>
       </c>
-      <c r="M9" s="8" t="str">
+      <c r="P9" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N9" s="8" t="str">
+      <c r="Q9" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O9" s="8" t="str">
+      <c r="R9" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P9" s="8" t="str">
+      <c r="S9" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biv</v>
       </c>
-      <c r="Q9" s="8" t="str">
+      <c r="T9" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIV_CO_2016.tif</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -5892,53 +5943,56 @@
       <c r="F10" t="s">
         <v>449</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" t="s">
+        <v>462</v>
+      </c>
+      <c r="J10" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="K10" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="L10" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Passenger cars</v>
       </c>
-      <c r="J10" s="8" t="str">
+      <c r="M10" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K10" s="3" t="b">
+      <c r="N10" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L10" s="8">
+      <c r="O10" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2017</v>
       </c>
-      <c r="M10" s="8" t="str">
+      <c r="P10" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N10" s="8" t="str">
+      <c r="Q10" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O10" s="8" t="str">
+      <c r="R10" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P10" s="8" t="str">
+      <c r="S10" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bi</v>
       </c>
-      <c r="Q10" s="8" t="str">
+      <c r="T10" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BI_CO_2017.tif</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -5954,53 +6008,56 @@
       <c r="F11" t="s">
         <v>450</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" t="s">
+        <v>462</v>
+      </c>
+      <c r="J11" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="L11" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Light duty vehicles</v>
       </c>
-      <c r="J11" s="8" t="str">
+      <c r="M11" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K11" s="3" t="b">
+      <c r="N11" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L11" s="8">
+      <c r="O11" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2017</v>
       </c>
-      <c r="M11" s="8" t="str">
+      <c r="P11" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N11" s="8" t="str">
+      <c r="Q11" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O11" s="8" t="str">
+      <c r="R11" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P11" s="8" t="str">
+      <c r="S11" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bii</v>
       </c>
-      <c r="Q11" s="8" t="str">
+      <c r="T11" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BII_CO_2017.tif</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -6016,53 +6073,56 @@
       <c r="F12" t="s">
         <v>451</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" t="s">
+        <v>462</v>
+      </c>
+      <c r="J12" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="L12" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Heavy duty vehicles and buses</v>
       </c>
-      <c r="J12" s="8" t="str">
+      <c r="M12" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K12" s="3" t="b">
+      <c r="N12" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L12" s="8">
+      <c r="O12" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2017</v>
       </c>
-      <c r="M12" s="8" t="str">
+      <c r="P12" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N12" s="8" t="str">
+      <c r="Q12" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O12" s="8" t="str">
+      <c r="R12" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P12" s="8" t="str">
+      <c r="S12" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biii</v>
       </c>
-      <c r="Q12" s="8" t="str">
+      <c r="T12" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIII_CO_2017.tif</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -6078,53 +6138,56 @@
       <c r="F13" t="s">
         <v>452</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" t="s">
+        <v>462</v>
+      </c>
+      <c r="J13" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="K13" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I13" s="1" t="str">
+      <c r="L13" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Mopeds &amp; motorcycles</v>
       </c>
-      <c r="J13" s="8" t="str">
+      <c r="M13" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K13" s="3" t="b">
+      <c r="N13" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L13" s="8">
+      <c r="O13" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2017</v>
       </c>
-      <c r="M13" s="8" t="str">
+      <c r="P13" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N13" s="8" t="str">
+      <c r="Q13" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O13" s="8" t="str">
+      <c r="R13" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P13" s="8" t="str">
+      <c r="S13" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biv</v>
       </c>
-      <c r="Q13" s="8" t="str">
+      <c r="T13" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIV_CO_2017.tif</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -6140,53 +6203,56 @@
       <c r="F14" t="s">
         <v>453</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" t="s">
+        <v>462</v>
+      </c>
+      <c r="J14" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H14" s="7" t="str">
+      <c r="K14" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="L14" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Passenger cars</v>
       </c>
-      <c r="J14" s="8" t="str">
+      <c r="M14" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K14" s="3" t="b">
+      <c r="N14" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L14" s="8">
+      <c r="O14" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2018</v>
       </c>
-      <c r="M14" s="8" t="str">
+      <c r="P14" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N14" s="8" t="str">
+      <c r="Q14" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="R14" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P14" s="8" t="str">
+      <c r="S14" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bi</v>
       </c>
-      <c r="Q14" s="8" t="str">
+      <c r="T14" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BI_CO_2018.tif</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -6202,53 +6268,56 @@
       <c r="F15" t="s">
         <v>454</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" t="s">
+        <v>462</v>
+      </c>
+      <c r="J15" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H15" s="7" t="str">
+      <c r="K15" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="L15" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Light duty vehicles</v>
       </c>
-      <c r="J15" s="8" t="str">
+      <c r="M15" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K15" s="3" t="b">
+      <c r="N15" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L15" s="8">
+      <c r="O15" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2018</v>
       </c>
-      <c r="M15" s="8" t="str">
+      <c r="P15" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N15" s="8" t="str">
+      <c r="Q15" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O15" s="8" t="str">
+      <c r="R15" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P15" s="8" t="str">
+      <c r="S15" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bii</v>
       </c>
-      <c r="Q15" s="8" t="str">
+      <c r="T15" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BII_CO_2018.tif</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -6264,53 +6333,56 @@
       <c r="F16" t="s">
         <v>455</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" t="s">
+        <v>462</v>
+      </c>
+      <c r="J16" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H16" s="7" t="str">
+      <c r="K16" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I16" s="1" t="str">
+      <c r="L16" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Heavy duty vehicles and buses</v>
       </c>
-      <c r="J16" s="8" t="str">
+      <c r="M16" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K16" s="3" t="b">
+      <c r="N16" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L16" s="8">
+      <c r="O16" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2018</v>
       </c>
-      <c r="M16" s="8" t="str">
+      <c r="P16" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N16" s="8" t="str">
+      <c r="Q16" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O16" s="8" t="str">
+      <c r="R16" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P16" s="8" t="str">
+      <c r="S16" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biii</v>
       </c>
-      <c r="Q16" s="8" t="str">
+      <c r="T16" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIII_CO_2018.tif</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -6326,53 +6398,56 @@
       <c r="F17" t="s">
         <v>456</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="G17" t="s">
+        <v>462</v>
+      </c>
+      <c r="J17" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H17" s="7" t="str">
+      <c r="K17" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I17" s="1" t="str">
+      <c r="L17" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Mopeds &amp; motorcycles</v>
       </c>
-      <c r="J17" s="8" t="str">
+      <c r="M17" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K17" s="3" t="b">
+      <c r="N17" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L17" s="8">
+      <c r="O17" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2018</v>
       </c>
-      <c r="M17" s="8" t="str">
+      <c r="P17" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N17" s="8" t="str">
+      <c r="Q17" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O17" s="8" t="str">
+      <c r="R17" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P17" s="8" t="str">
+      <c r="S17" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biv</v>
       </c>
-      <c r="Q17" s="8" t="str">
+      <c r="T17" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIV_CO_2018.tif</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -6388,53 +6463,56 @@
       <c r="F18" t="s">
         <v>457</v>
       </c>
-      <c r="G18" s="1" t="str">
+      <c r="G18" t="s">
+        <v>462</v>
+      </c>
+      <c r="J18" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H18" s="7" t="str">
+      <c r="K18" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I18" s="1" t="str">
+      <c r="L18" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Passenger cars</v>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="M18" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K18" s="3" t="b">
+      <c r="N18" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L18" s="8">
+      <c r="O18" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2019</v>
       </c>
-      <c r="M18" s="8" t="str">
+      <c r="P18" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="Q18" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="R18" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P18" s="8" t="str">
+      <c r="S18" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bi</v>
       </c>
-      <c r="Q18" s="8" t="str">
+      <c r="T18" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BI_CO_2019.tif</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -6450,53 +6528,56 @@
       <c r="F19" t="s">
         <v>458</v>
       </c>
-      <c r="G19" s="1" t="str">
+      <c r="G19" t="s">
+        <v>462</v>
+      </c>
+      <c r="J19" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H19" s="7" t="str">
+      <c r="K19" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I19" s="1" t="str">
+      <c r="L19" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Light duty vehicles</v>
       </c>
-      <c r="J19" s="8" t="str">
+      <c r="M19" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K19" s="3" t="b">
+      <c r="N19" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L19" s="8">
+      <c r="O19" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2019</v>
       </c>
-      <c r="M19" s="8" t="str">
+      <c r="P19" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N19" s="8" t="str">
+      <c r="Q19" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O19" s="8" t="str">
+      <c r="R19" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P19" s="8" t="str">
+      <c r="S19" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3bii</v>
       </c>
-      <c r="Q19" s="8" t="str">
+      <c r="T19" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BII_CO_2019.tif</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -6512,53 +6593,56 @@
       <c r="F20" t="s">
         <v>459</v>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="G20" t="s">
+        <v>462</v>
+      </c>
+      <c r="J20" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H20" s="7" t="str">
+      <c r="K20" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I20" s="1" t="str">
+      <c r="L20" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Heavy duty vehicles and buses</v>
       </c>
-      <c r="J20" s="8" t="str">
+      <c r="M20" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K20" s="3" t="b">
+      <c r="N20" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L20" s="8">
+      <c r="O20" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2019</v>
       </c>
-      <c r="M20" s="8" t="str">
+      <c r="P20" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N20" s="8" t="str">
+      <c r="Q20" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O20" s="8" t="str">
+      <c r="R20" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P20" s="8" t="str">
+      <c r="S20" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biii</v>
       </c>
-      <c r="Q20" s="8" t="str">
+      <c r="T20" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIII_CO_2019.tif</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -6574,48 +6658,51 @@
       <c r="F21" t="s">
         <v>460</v>
       </c>
-      <c r="G21" s="1" t="str">
+      <c r="G21" t="s">
+        <v>462</v>
+      </c>
+      <c r="J21" s="1" t="str">
         <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
         <v>Flanders</v>
       </c>
-      <c r="H21" s="7" t="str">
+      <c r="K21" s="7" t="str">
         <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>F_RoadTransport</v>
       </c>
-      <c r="I21" s="1" t="str">
+      <c r="L21" s="1" t="str">
         <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
         <v>Road transport: Mopeds &amp; motorcycles</v>
       </c>
-      <c r="J21" s="8" t="str">
+      <c r="M21" s="8" t="str">
         <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
         <v>'GNFR-NFR'!C2:C129</v>
       </c>
-      <c r="K21" s="3" t="b">
+      <c r="N21" s="3" t="b">
         <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
         <v>0</v>
       </c>
-      <c r="L21" s="8">
+      <c r="O21" s="8">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
         <v>2019</v>
       </c>
-      <c r="M21" s="8" t="str">
+      <c r="P21" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
         <v>CO</v>
       </c>
-      <c r="N21" s="8" t="str">
+      <c r="Q21" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
         <v>BEF</v>
       </c>
-      <c r="O21" s="8" t="str">
+      <c r="R21" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
         <v>F</v>
       </c>
-      <c r="P21" s="8" t="str">
+      <c r="S21" s="8" t="str">
         <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
         <v>1A3biv</v>
       </c>
-      <c r="Q21" s="8" t="str">
+      <c r="T21" s="8" t="str">
         <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
         <v>./wegverkeer/2021/1A3BIV_CO_2019.tif</v>
       </c>
@@ -6623,182 +6710,182 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="expression" dxfId="46" priority="883">
-      <formula>$K2=FALSE</formula>
+    <cfRule type="expression" dxfId="35" priority="883">
+      <formula>$N2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F21 A2:C21">
-    <cfRule type="expression" dxfId="45" priority="882">
+  <conditionalFormatting sqref="A2:C21 F2:I21">
+    <cfRule type="expression" dxfId="34" priority="882">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="44" priority="881">
-      <formula>$K3=FALSE</formula>
+    <cfRule type="expression" dxfId="33" priority="881">
+      <formula>$N3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3 F3">
-    <cfRule type="expression" dxfId="43" priority="880">
+  <conditionalFormatting sqref="A3:C3 F3:I3">
+    <cfRule type="expression" dxfId="32" priority="880">
       <formula>ISBLANK(A3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="42" priority="879">
-      <formula>$K4=FALSE</formula>
+    <cfRule type="expression" dxfId="31" priority="879">
+      <formula>$N4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4 F4">
-    <cfRule type="expression" dxfId="41" priority="878">
+  <conditionalFormatting sqref="A4:C4 F4:I4">
+    <cfRule type="expression" dxfId="30" priority="878">
       <formula>ISBLANK(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="40" priority="877">
-      <formula>$K5=FALSE</formula>
+    <cfRule type="expression" dxfId="29" priority="877">
+      <formula>$N5=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 F5">
-    <cfRule type="expression" dxfId="39" priority="876">
+  <conditionalFormatting sqref="A5:C5 F5:I5">
+    <cfRule type="expression" dxfId="28" priority="876">
       <formula>ISBLANK(A5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C9 F6:F9">
-    <cfRule type="expression" dxfId="38" priority="875">
+  <conditionalFormatting sqref="A6:C9 F6:I9">
+    <cfRule type="expression" dxfId="27" priority="875">
       <formula>ISBLANK(A6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="37" priority="874">
-      <formula>$K7=FALSE</formula>
+    <cfRule type="expression" dxfId="26" priority="874">
+      <formula>$N7=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 F7">
-    <cfRule type="expression" dxfId="36" priority="873">
+  <conditionalFormatting sqref="A7:C7 F7:I7">
+    <cfRule type="expression" dxfId="25" priority="873">
       <formula>ISBLANK(A7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="35" priority="872">
-      <formula>$K8=FALSE</formula>
+    <cfRule type="expression" dxfId="24" priority="872">
+      <formula>$N8=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 F8">
-    <cfRule type="expression" dxfId="34" priority="871">
+  <conditionalFormatting sqref="A8:C8 F8:I8">
+    <cfRule type="expression" dxfId="23" priority="871">
       <formula>ISBLANK(A8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="33" priority="870">
-      <formula>$K9=FALSE</formula>
+    <cfRule type="expression" dxfId="22" priority="870">
+      <formula>$N9=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 F9">
-    <cfRule type="expression" dxfId="32" priority="869">
+  <conditionalFormatting sqref="A9:C9 F9:I9">
+    <cfRule type="expression" dxfId="21" priority="869">
       <formula>ISBLANK(A9)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:C13 F10:F13">
-    <cfRule type="expression" dxfId="31" priority="868">
+  <conditionalFormatting sqref="A10:C13 F10:I13">
+    <cfRule type="expression" dxfId="20" priority="868">
       <formula>ISBLANK(A10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="30" priority="867">
-      <formula>$K11=FALSE</formula>
+    <cfRule type="expression" dxfId="19" priority="867">
+      <formula>$N11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:C11 F11">
-    <cfRule type="expression" dxfId="29" priority="866">
+  <conditionalFormatting sqref="A11:C11 F11:I11">
+    <cfRule type="expression" dxfId="18" priority="866">
       <formula>ISBLANK(A11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="28" priority="865">
-      <formula>$K12=FALSE</formula>
+    <cfRule type="expression" dxfId="17" priority="865">
+      <formula>$N12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:C12 F12">
-    <cfRule type="expression" dxfId="27" priority="864">
+  <conditionalFormatting sqref="A12:C12 F12:I12">
+    <cfRule type="expression" dxfId="16" priority="864">
       <formula>ISBLANK(A12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="26" priority="863">
-      <formula>$K13=FALSE</formula>
+    <cfRule type="expression" dxfId="15" priority="863">
+      <formula>$N13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 F13">
-    <cfRule type="expression" dxfId="25" priority="862">
+  <conditionalFormatting sqref="A13:C13 F13:I13">
+    <cfRule type="expression" dxfId="14" priority="862">
       <formula>ISBLANK(A13)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C17 F14:F17">
-    <cfRule type="expression" dxfId="24" priority="861">
+  <conditionalFormatting sqref="A14:C17 F14:I17">
+    <cfRule type="expression" dxfId="13" priority="861">
       <formula>ISBLANK(A14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="23" priority="860">
-      <formula>$K15=FALSE</formula>
+    <cfRule type="expression" dxfId="12" priority="860">
+      <formula>$N15=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 F15">
-    <cfRule type="expression" dxfId="22" priority="859">
+  <conditionalFormatting sqref="A15:C15 F15:I15">
+    <cfRule type="expression" dxfId="11" priority="859">
       <formula>ISBLANK(A15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="21" priority="858">
-      <formula>$K16=FALSE</formula>
+    <cfRule type="expression" dxfId="10" priority="858">
+      <formula>$N16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 F16">
-    <cfRule type="expression" dxfId="20" priority="857">
+  <conditionalFormatting sqref="A16:C16 F16:I16">
+    <cfRule type="expression" dxfId="9" priority="857">
       <formula>ISBLANK(A16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="19" priority="856">
-      <formula>$K17=FALSE</formula>
+    <cfRule type="expression" dxfId="8" priority="856">
+      <formula>$N17=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 F17">
-    <cfRule type="expression" dxfId="18" priority="855">
+  <conditionalFormatting sqref="A17:C17 F17:I17">
+    <cfRule type="expression" dxfId="7" priority="855">
       <formula>ISBLANK(A17)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C21 F18:F21">
-    <cfRule type="expression" dxfId="17" priority="854">
+  <conditionalFormatting sqref="A18:C21 F18:I21">
+    <cfRule type="expression" dxfId="6" priority="854">
       <formula>ISBLANK(A18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="16" priority="853">
-      <formula>$K19=FALSE</formula>
+    <cfRule type="expression" dxfId="5" priority="853">
+      <formula>$N19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19 F19">
-    <cfRule type="expression" dxfId="15" priority="852">
+  <conditionalFormatting sqref="A19:C19 F19:I19">
+    <cfRule type="expression" dxfId="4" priority="852">
       <formula>ISBLANK(A19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="14" priority="851">
-      <formula>$K20=FALSE</formula>
+    <cfRule type="expression" dxfId="3" priority="851">
+      <formula>$N20=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 F20">
-    <cfRule type="expression" dxfId="13" priority="850">
+  <conditionalFormatting sqref="A20:C20 F20:I20">
+    <cfRule type="expression" dxfId="2" priority="850">
       <formula>ISBLANK(A20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="12" priority="849">
-      <formula>$K21=FALSE</formula>
+    <cfRule type="expression" dxfId="1" priority="849">
+      <formula>$N21=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21 F21">
-    <cfRule type="expression" dxfId="11" priority="848">
+  <conditionalFormatting sqref="A21:C21 F21:I21">
+    <cfRule type="expression" dxfId="0" priority="848">
       <formula>ISBLANK(A21)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6813,7 +6900,7 @@
       <formula1>GNFR</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21" xr:uid="{CFB1DFB7-1A2B-4733-8808-6A363CB09CD7}">
-      <formula1>INDIRECT(J2)</formula1>
+      <formula1>INDIRECT(M2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/logic/test/data/spatialinventory/exceptions_spatial_disaggregation.xlsx
+++ b/logic/test/data/spatialinventory/exceptions_spatial_disaggregation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMABuild\emap\logic\test\data\spatialinventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D18855-D59F-4646-AA76-8C11D8D1274C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3DA0CE-792D-4750-B99F-DE97DC8173BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-110" windowWidth="37670" windowHeight="21820" activeTab="5" xr2:uid="{6C3FE3BB-8C73-4241-95BD-F737EA4A19F7}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="37690" windowHeight="21820" activeTab="5" xr2:uid="{6C3FE3BB-8C73-4241-95BD-F737EA4A19F7}"/>
   </bookViews>
   <sheets>
     <sheet name="GNFR" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="466">
   <si>
     <t>A_PublicPower</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>via_GNFR</t>
+  </si>
+  <si>
+    <t>./wegverkeer/2021/B_Industry_CO_2019.tif</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1588,169 @@
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1948,165 +2113,53 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2187,38 +2240,38 @@
     <tableColumn id="2" xr3:uid="{34470E06-D53A-4CB8-883D-67C79F759C3B}" name="type"/>
     <tableColumn id="14" xr3:uid="{F12554B4-D21C-46BF-A7E1-572FE2F30F2C}" name="via_NFR"/>
     <tableColumn id="20" xr3:uid="{45D262D2-7868-46E7-AB75-B5A5A94061E0}" name="via_GNFR"/>
-    <tableColumn id="9" xr3:uid="{DCB47D4C-7148-4891-B486-04CF70C7FDCC}" name="country_label" dataDxfId="46">
+    <tableColumn id="9" xr3:uid="{DCB47D4C-7148-4891-B486-04CF70C7FDCC}" name="country_label" dataDxfId="10">
       <calculatedColumnFormula>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{409654D3-E717-4ECD-B724-CE76BF1FA726}" name="GNFR_label" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{409654D3-E717-4ECD-B724-CE76BF1FA726}" name="GNFR_label" dataDxfId="9">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9A37C5B-FED3-493F-81B8-F88D72CF166B}" name="NFR_label" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{B9A37C5B-FED3-493F-81B8-F88D72CF166B}" name="NFR_label" dataDxfId="8">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3741CCE9-D8A3-4702-9FBB-BDDC5296CA41}" name="Data validation GNFR-NFR_range" dataDxfId="43">
+    <tableColumn id="10" xr3:uid="{3741CCE9-D8A3-4702-9FBB-BDDC5296CA41}" name="Data validation GNFR-NFR_range" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
 _xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{327D5723-70F8-4F14-A112-90BAA56B122D}" name="Data validation GNFR-NFR_ok" dataDxfId="42">
+    <tableColumn id="11" xr3:uid="{327D5723-70F8-4F14-A112-90BAA56B122D}" name="Data validation GNFR-NFR_ok" dataDxfId="6">
       <calculatedColumnFormula>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{14DFCA77-FA4F-4492-90FC-E1CF29BD5BDC}" name="E-MAP_year" dataDxfId="41">
+    <tableColumn id="13" xr3:uid="{14DFCA77-FA4F-4492-90FC-E1CF29BD5BDC}" name="E-MAP_year" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0AF0B6B0-EAF2-4779-805E-3E840BA3636B}" name="E-MAP_pollutant_code" dataDxfId="40">
+    <tableColumn id="15" xr3:uid="{0AF0B6B0-EAF2-4779-805E-3E840BA3636B}" name="E-MAP_pollutant_code" dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C9437DA3-379A-4119-852E-97451565DC30}" name="E-MAP_country_iso_code" dataDxfId="39">
+    <tableColumn id="16" xr3:uid="{C9437DA3-379A-4119-852E-97451565DC30}" name="E-MAP_country_iso_code" dataDxfId="3">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{90BD55C3-62EC-45E1-88D6-C55C69ABA3CE}" name="E-MAP_GNFR_code" dataDxfId="38">
+    <tableColumn id="17" xr3:uid="{90BD55C3-62EC-45E1-88D6-C55C69ABA3CE}" name="E-MAP_GNFR_code" dataDxfId="2">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{75A83B3D-980A-4F01-8C60-1E833397AAFE}" name="E-MAP_NFR_code" dataDxfId="37">
+    <tableColumn id="18" xr3:uid="{75A83B3D-980A-4F01-8C60-1E833397AAFE}" name="E-MAP_NFR_code" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8B2B56DD-9D26-4198-95A5-38E1BF66DD11}" name="E-MAP_file_path" dataDxfId="36">
+    <tableColumn id="19" xr3:uid="{8B2B56DD-9D26-4198-95A5-38E1BF66DD11}" name="E-MAP_file_path" dataDxfId="0">
       <calculatedColumnFormula>tbl_I_spatial_distribution[[#This Row],[file_path]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5315,10 +5368,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6707,199 +6760,289 @@
         <v>./wegverkeer/2021/1A3BIV_CO_2019.tif</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2016</v>
+      </c>
+      <c r="B22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" t="s">
+        <v>465</v>
+      </c>
+      <c r="G22" t="s">
+        <v>462</v>
+      </c>
+      <c r="J22" s="1" t="e">
+        <f>INDEX(tbl_country[country_label],MATCH(tbl_I_spatial_distribution[[#This Row],[country_iso_code]],tbl_country[country_iso_code],0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="7" t="e">
+        <f>INDEX(tbl_GNFR_NFR[GNFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" s="1" t="e">
+        <f>INDEX(tbl_GNFR_NFR[NFR_label],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" s="8" t="str">
+        <f>IFERROR(_xlfn.CONCAT("'GNFR-NFR'!C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],)+1,":C",MATCH(tbl_I_spatial_distribution[[#This Row],[GNFR_code]],tbl_GNFR_NFR[GNFR_code],0)+COUNTIF(tbl_GNFR_NFR[GNFR_code],tbl_I_spatial_distribution[[#This Row],[GNFR_code]])),
+_xlfn.CONCAT("'GNFR-NFR'!C2:C",COUNTA(tbl_GNFR_NFR[NFR_code])+1))</f>
+        <v>'GNFR-NFR'!C2:C129</v>
+      </c>
+      <c r="N22" s="3" t="e">
+        <f>INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0))=tbl_I_spatial_distribution[[#This Row],[GNFR_code]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O22" s="8" t="e">
+        <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[Year]]),"",tbl_I_spatial_distribution[[#This Row],[Year]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P22" s="8" t="e">
+        <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[pollutant_code]]),"",tbl_I_spatial_distribution[[#This Row],[pollutant_code]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q22" s="8" t="e">
+        <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[country_iso_code]]),"",tbl_I_spatial_distribution[[#This Row],[country_iso_code]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R22" s="8" t="e">
+        <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[GNFR_code]]),INDEX(tbl_GNFR_NFR[GNFR_code],MATCH(tbl_I_spatial_distribution[[#This Row],[NFR_code]],tbl_GNFR_NFR[NFR_code],0)),tbl_I_spatial_distribution[[#This Row],[GNFR_code]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S22" s="8" t="e">
+        <f>IF(ISBLANK(tbl_I_spatial_distribution[[#This Row],[NFR_code]]),"*",tbl_I_spatial_distribution[[#This Row],[NFR_code]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T22" s="8" t="e">
+        <f>tbl_I_spatial_distribution[[#This Row],[file_path]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="expression" dxfId="35" priority="883">
+    <cfRule type="expression" dxfId="51" priority="888">
       <formula>$N2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C21 F2:I21">
-    <cfRule type="expression" dxfId="34" priority="882">
+    <cfRule type="expression" dxfId="50" priority="887">
       <formula>ISBLANK(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="33" priority="881">
+    <cfRule type="expression" dxfId="49" priority="886">
       <formula>$N3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 F3:I3">
-    <cfRule type="expression" dxfId="32" priority="880">
+    <cfRule type="expression" dxfId="48" priority="885">
       <formula>ISBLANK(A3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="31" priority="879">
+    <cfRule type="expression" dxfId="47" priority="884">
       <formula>$N4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4 F4:I4">
-    <cfRule type="expression" dxfId="30" priority="878">
+    <cfRule type="expression" dxfId="46" priority="883">
       <formula>ISBLANK(A4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="29" priority="877">
+    <cfRule type="expression" dxfId="45" priority="882">
       <formula>$N5=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5 F5:I5">
-    <cfRule type="expression" dxfId="28" priority="876">
+    <cfRule type="expression" dxfId="44" priority="881">
       <formula>ISBLANK(A5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C9 F6:I9">
-    <cfRule type="expression" dxfId="27" priority="875">
+    <cfRule type="expression" dxfId="43" priority="880">
       <formula>ISBLANK(A6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="26" priority="874">
+    <cfRule type="expression" dxfId="42" priority="879">
       <formula>$N7=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 F7:I7">
-    <cfRule type="expression" dxfId="25" priority="873">
+    <cfRule type="expression" dxfId="41" priority="878">
       <formula>ISBLANK(A7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="24" priority="872">
+    <cfRule type="expression" dxfId="40" priority="877">
       <formula>$N8=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 F8:I8">
-    <cfRule type="expression" dxfId="23" priority="871">
+    <cfRule type="expression" dxfId="39" priority="876">
       <formula>ISBLANK(A8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="22" priority="870">
+    <cfRule type="expression" dxfId="38" priority="875">
       <formula>$N9=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 F9:I9">
-    <cfRule type="expression" dxfId="21" priority="869">
+    <cfRule type="expression" dxfId="37" priority="874">
       <formula>ISBLANK(A9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:C13 F10:I13">
-    <cfRule type="expression" dxfId="20" priority="868">
+    <cfRule type="expression" dxfId="36" priority="873">
       <formula>ISBLANK(A10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="19" priority="867">
+    <cfRule type="expression" dxfId="35" priority="872">
       <formula>$N11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 F11:I11">
-    <cfRule type="expression" dxfId="18" priority="866">
+    <cfRule type="expression" dxfId="34" priority="871">
       <formula>ISBLANK(A11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="17" priority="865">
+    <cfRule type="expression" dxfId="33" priority="870">
       <formula>$N12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12 F12:I12">
-    <cfRule type="expression" dxfId="16" priority="864">
+    <cfRule type="expression" dxfId="32" priority="869">
       <formula>ISBLANK(A12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="15" priority="863">
+    <cfRule type="expression" dxfId="31" priority="868">
       <formula>$N13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:C13 F13:I13">
-    <cfRule type="expression" dxfId="14" priority="862">
+    <cfRule type="expression" dxfId="30" priority="867">
       <formula>ISBLANK(A13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:C17 F14:I17">
-    <cfRule type="expression" dxfId="13" priority="861">
+    <cfRule type="expression" dxfId="29" priority="866">
       <formula>ISBLANK(A14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="12" priority="860">
+    <cfRule type="expression" dxfId="28" priority="865">
       <formula>$N15=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 F15:I15">
-    <cfRule type="expression" dxfId="11" priority="859">
+    <cfRule type="expression" dxfId="27" priority="864">
       <formula>ISBLANK(A15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="10" priority="858">
+    <cfRule type="expression" dxfId="26" priority="863">
       <formula>$N16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16 F16:I16">
-    <cfRule type="expression" dxfId="9" priority="857">
+    <cfRule type="expression" dxfId="25" priority="862">
       <formula>ISBLANK(A16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="8" priority="856">
+    <cfRule type="expression" dxfId="24" priority="861">
       <formula>$N17=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 F17:I17">
-    <cfRule type="expression" dxfId="7" priority="855">
+    <cfRule type="expression" dxfId="23" priority="860">
       <formula>ISBLANK(A17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C21 F18:I21">
-    <cfRule type="expression" dxfId="6" priority="854">
+    <cfRule type="expression" dxfId="22" priority="859">
       <formula>ISBLANK(A18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="5" priority="853">
+    <cfRule type="expression" dxfId="21" priority="858">
       <formula>$N19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19 F19:I19">
-    <cfRule type="expression" dxfId="4" priority="852">
+    <cfRule type="expression" dxfId="20" priority="857">
       <formula>ISBLANK(A19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="3" priority="851">
+    <cfRule type="expression" dxfId="19" priority="856">
       <formula>$N20=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 F20:I20">
-    <cfRule type="expression" dxfId="2" priority="850">
+    <cfRule type="expression" dxfId="18" priority="855">
       <formula>ISBLANK(A20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="1" priority="849">
+    <cfRule type="expression" dxfId="17" priority="854">
       <formula>$N21=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C21 F21:I21">
-    <cfRule type="expression" dxfId="0" priority="848">
+    <cfRule type="expression" dxfId="16" priority="853">
       <formula>ISBLANK(A21)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>$N22=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:C22 F22:I22">
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>ISBLANK(A22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:C22 F22:I22">
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>ISBLANK(A22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>$N22=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:C22 F22:I22">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>ISBLANK(A22)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21" xr:uid="{408D5B29-ED64-41D6-B2C9-87834CC0D1A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{408D5B29-ED64-41D6-B2C9-87834CC0D1A5}">
       <formula1>pollutant</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{3F75D6D0-D85E-4B43-9850-03184E40FE92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22" xr:uid="{3F75D6D0-D85E-4B43-9850-03184E40FE92}">
       <formula1>country</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21" xr:uid="{535DD205-1625-4419-AFA4-BB88C9609505}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D22" xr:uid="{535DD205-1625-4419-AFA4-BB88C9609505}">
       <formula1>GNFR</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21" xr:uid="{CFB1DFB7-1A2B-4733-8808-6A363CB09CD7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22" xr:uid="{CFB1DFB7-1A2B-4733-8808-6A363CB09CD7}">
       <formula1>INDIRECT(M2)</formula1>
     </dataValidation>
   </dataValidations>
